--- a/ComparisonAgent_Output/ABAP To Pyspark Doc & Analyze_comparison/aava_enterprise_comparison_agent.xlsx
+++ b/ComparisonAgent_Output/ABAP To Pyspark Doc & Analyze_comparison/aava_enterprise_comparison_agent.xlsx
@@ -16,9 +16,13 @@
     <sheet name="SECTION_4_DIMENSIONBASED_COMPAR" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="SECTION_5_OVERALL_COMPARISON_RE" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Table_3" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Overall_Migration_Risk_Level_HI" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Table_4" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="SECTION_10_FINAL_RECOMMENDATION" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Component_Documentation" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Component_Plan" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="SECTION_8_KEY_DIFFERENCES" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Overall_Migration_Risk_Level_LO" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Table_4" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="SECTION_10_FINAL_RECOMMENDATION" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Table_5" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -468,7 +472,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-18 23:17:17</t>
+          <t>2026-01-18 23:46:21</t>
         </is>
       </c>
     </row>
@@ -479,7 +483,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -493,7 +497,675 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="24" customWidth="1" min="2" max="2"/>
+    <col width="24" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Aspect</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AAVA 1.0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>AAVA 2.0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Filename</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ABAP_Documentation.txt</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>abap_documentation.txt</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Lines of Code</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-6 / -12%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Functions/Classes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Cyclomatic Complexity</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Content Match Status</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Minor Diff</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Lines Added</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Lines Removed</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Lines Changed</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Match Percentage</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>94.6%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dimension Score</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>94/100</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="26" customWidth="1" min="2" max="2"/>
+    <col width="26" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Aspect</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AAVA 1.0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>AAVA 2.0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Filename</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ABAP_to_PySpark_Plan.txt</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>abap_to_pyspark_plan.txt</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Lines of Code</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>±0 / 0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Functions/Classes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Cyclomatic Complexity</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Content Match Status</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Equivalent</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Lines Added</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Lines Removed</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Lines Changed</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Match Percentage</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>99.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dimension Score</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>99/100</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="35" customWidth="1" min="3" max="3"/>
+    <col width="19" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Severity</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Component</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Functional Impact</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Migration Impact</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Minor</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Documentation</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Formatting and documentation gaps</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Plan</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>No differences</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Major</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Analyzer</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Missing/inaccessible file</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,8 +1175,8 @@
   <cols>
     <col width="24" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="27" customWidth="1" min="3" max="3"/>
-    <col width="27" customWidth="1" min="4" max="4"/>
+    <col width="33" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -532,7 +1204,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Missing Matches</t>
+          <t>Unmatched Analyzer</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -542,78 +1214,56 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No files passed all gates</t>
+          <t>File not accessible in AAVA 2.0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Manual review required</t>
+          <t>Locate or recreate file</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Functional Equivalence</t>
+          <t>Documentation Gaps</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cannot be validated</t>
+          <t>Minor formatting differences</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Postpone migration</t>
+          <t>Update documentation</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Test Coverage</t>
+          <t>Functional Equivalence</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Not assessed</t>
+          <t>All matched logic preserved</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Additional testing needed</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Documentation</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Not assessed</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Review documentation</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -622,7 +1272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -637,8 +1287,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="28" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="27" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -666,12 +1316,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NOT READY</t>
+          <t>Ready</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No valid matches</t>
+          <t>Confirmed for matched files</t>
         </is>
       </c>
     </row>
@@ -683,12 +1333,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NOT READY</t>
+          <t>Conditional</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Not compared</t>
+          <t>Not assessed for Analyzer</t>
         </is>
       </c>
     </row>
@@ -700,12 +1350,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NOT READY</t>
+          <t>Ready</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Not compared</t>
+          <t>No changes</t>
         </is>
       </c>
     </row>
@@ -717,12 +1367,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NOT READY</t>
+          <t>Conditional</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Not compared</t>
+          <t>Minor gaps</t>
         </is>
       </c>
     </row>
@@ -734,12 +1384,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NOT READY</t>
+          <t>Ready</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Matching gates not passed</t>
+          <t>All gates passed for matched</t>
         </is>
       </c>
     </row>
@@ -751,12 +1401,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NOT READY</t>
+          <t>CONDITIONAL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Migration cannot proceed</t>
+          <t>Unmatched file needs review</t>
         </is>
       </c>
     </row>
@@ -765,13 +1415,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -780,7 +1430,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="50" customWidth="1" min="2" max="2"/>
+    <col width="35" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -803,7 +1453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NOT APPROVED</t>
+          <t>CONDITIONAL</t>
         </is>
       </c>
     </row>
@@ -815,7 +1465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>No files passed matching gates; migration cannot proceed.</t>
+          <t>Analyzer file missing in AAVA 2.0</t>
         </is>
       </c>
     </row>
@@ -827,7 +1477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>HIGH for matched, MEDIUM overall</t>
         </is>
       </c>
     </row>
@@ -839,31 +1489,98 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Not recommended</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+          <t>Conditional</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="26" customWidth="1" min="2" max="2"/>
+    <col width="28" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Priority</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Action Required</t>
         </is>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Responsible Team</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Timeline</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Manual review</t>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Locate/recreate Analyzer</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Workflow Owner / AAVA Team</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Immediate</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Update documentation</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Workflow Owner / AAVA Team</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2 weeks</t>
         </is>
       </c>
     </row>
@@ -886,12 +1603,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="26" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="1" max="1"/>
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="30" customWidth="1" min="3" max="3"/>
     <col width="16" customWidth="1" min="4" max="4"/>
     <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="23" customWidth="1" min="6" max="6"/>
+    <col width="19" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
     <col width="18" customWidth="1" min="8" max="8"/>
   </cols>
@@ -941,64 +1658,64 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ABAP_to_PySpark_Analyzer</t>
+          <t>Documentation</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ABAP_to_PySpark_Analyzer.txt</t>
+          <t>ABAP_Documentation.txt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>abap_to_pyspark_analyzer.txt</t>
+          <t>abap_documentation.txt</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>±N/A</t>
+          <t>±6</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>94.6%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Not Comparable</t>
+          <t>Minor Diff</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>94/100</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ABAP_to_PySpark_Plan</t>
+          <t>Analyzer</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ABAP_to_PySpark_Plan.txt</t>
+          <t>ABAP_to_PySpark_Analyzer.txt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>abap_to_pyspark_plan.txt</t>
+          <t>abap_to_pyspark_analyzer.txt</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>±N/A</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1025,42 +1742,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ABAP_Documentation</t>
+          <t>Plan</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ABAP_Documentation.txt</t>
+          <t>ABAP_to_PySpark_Plan.txt</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>abap_documentation.txt</t>
+          <t>abap_to_pyspark_plan.txt</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>±N/A</t>
+          <t>±0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>99.5%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Not Comparable</t>
+          <t>Equivalent</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>99/100</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1082,27 +1799,27 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Avg ±3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>97.1%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Incomplete Comparison</t>
+          <t>Conditional Pass</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>96.5/100</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1890,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1902,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1914,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1938,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>66.7%</t>
         </is>
       </c>
     </row>
@@ -1274,12 +1991,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>All gates passed with high confidence</t>
         </is>
       </c>
     </row>
@@ -1296,7 +2013,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1308,12 +2025,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Gate failure (intent/token/structure)</t>
+          <t>Gate 1 failed (missing/inaccessible)</t>
         </is>
       </c>
     </row>
@@ -1328,7 +2045,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1338,7 +2055,7 @@
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
     <col width="30" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="42" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1361,102 +2078,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AAVA 1.0</t>
+          <t>AAVA 2.0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ABAP_to_PySpark_Analyzer.txt</t>
+          <t>abap_to_pyspark_analyzer.txt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No match in AAVA 2.0 - Gate 1 failed (intent mismatch)</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AAVA 1.0</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ABAP_to_PySpark_Plan.txt</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>No match in AAVA 2.0 - Gate 1 failed (intent mismatch)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AAVA 1.0</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ABAP_Documentation.txt</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>No match in AAVA 2.0 - Gate 1 failed (intent mismatch)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>AAVA 2.0</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>abap_to_pyspark_analyzer.txt</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>No match in AAVA 1.0 - Gate 1 failed (intent mismatch)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>AAVA 2.0</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>abap_to_pyspark_plan.txt</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>No match in AAVA 1.0 - Gate 1 failed (intent mismatch)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>AAVA 2.0</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>abap_documentation.txt</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>No match in AAVA 1.0 - Gate 1 failed (intent mismatch)</t>
+          <t>No match in AAVA 1.0 - file inaccessible</t>
         </is>
       </c>
     </row>
@@ -1623,8 +2255,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="35" customWidth="1" min="1" max="1"/>
-    <col width="29" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="23" customWidth="1" min="2" max="2"/>
+    <col width="9" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
@@ -1658,17 +2290,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Business rules and outcomes</t>
+          <t>Rules and outcomes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Match</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1685,12 +2317,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Match</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1707,12 +2339,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Match</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1729,12 +2361,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Match</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1751,12 +2383,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Match</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1773,12 +2405,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Match</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1795,12 +2427,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -1817,12 +2449,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -1839,12 +2471,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -1861,12 +2493,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Match</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1888,7 +2520,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>97/100</t>
         </is>
       </c>
     </row>
@@ -1914,8 +2546,8 @@
     <col width="38" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="8" customWidth="1" min="4" max="4"/>
-    <col width="16" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1953,22 +2585,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>50</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>-6 / -12%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Not Comparable</t>
+          <t>Minor Diff</t>
         </is>
       </c>
     </row>
@@ -1980,22 +2612,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Not Comparable</t>
+          <t>Equivalent</t>
         </is>
       </c>
     </row>
@@ -2007,22 +2639,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Not Comparable</t>
+          <t>Equivalent</t>
         </is>
       </c>
     </row>
@@ -2044,12 +2676,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Not Comparable</t>
+          <t>Equivalent</t>
         </is>
       </c>
     </row>
@@ -2071,12 +2703,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Not Comparable</t>
+          <t>Equivalent</t>
         </is>
       </c>
     </row>
@@ -2098,12 +2730,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Not Comparable</t>
+          <t>Minor Diff</t>
         </is>
       </c>
     </row>
@@ -2130,7 +2762,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Not Comparable</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -2152,12 +2784,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>97.1%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Not Comparable</t>
+          <t>Conditional Pass</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2812,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="26" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="1" max="1"/>
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="30" customWidth="1" min="3" max="3"/>
     <col width="16" customWidth="1" min="4" max="4"/>
@@ -2235,59 +2867,59 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ABAP_to_PySpark_Analyzer</t>
+          <t>Documentation</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ABAP_to_PySpark_Analyzer.txt</t>
+          <t>ABAP_Documentation.txt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>abap_to_pyspark_analyzer.txt</t>
+          <t>abap_documentation.txt</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Not Comparable</t>
+          <t>Verified</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>±6</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>94.6%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>94</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ABAP_to_PySpark_Plan</t>
+          <t>Analyzer</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ABAP_to_PySpark_Plan.txt</t>
+          <t>ABAP_to_PySpark_Analyzer.txt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>abap_to_pyspark_plan.txt</t>
+          <t>abap_to_pyspark_analyzer.txt</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2319,42 +2951,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ABAP_Documentation</t>
+          <t>Plan</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ABAP_Documentation.txt</t>
+          <t>ABAP_to_PySpark_Plan.txt</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>abap_documentation.txt</t>
+          <t>abap_to_pyspark_plan.txt</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Not Comparable</t>
+          <t>Verified</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>±0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>99.5%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>99</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>None</t>
         </is>
       </c>
     </row>

--- a/ComparisonAgent_Output/ABAP To Pyspark Doc & Analyze_comparison/aava_enterprise_comparison_agent.xlsx
+++ b/ComparisonAgent_Output/ABAP To Pyspark Doc & Analyze_comparison/aava_enterprise_comparison_agent.xlsx
@@ -9,18 +9,19 @@
   <sheets>
     <sheet name="Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Table_1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Scope_Summary_Table" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="SECTION_2_COMPARISON_SCOPE" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Matching_Confidence_Distributio" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Table_2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Match_Unchanged_Lines_Total_Lin" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="SECTION_4_DIMENSIONBASED_COMPAR" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="SECTION_5_OVERALL_COMPARISON_RE" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Table_3" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Component_Documentation" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Component_Analyzer" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Component_Plan" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Table_2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Component_ABAP_to_PySpark_Analy" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Component_ABAP_Documentation" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Component_ABAP_to_PySpark_Plan" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="Overall_Migration_Risk_Level_LO" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="SECTION_10_FINAL_RECOMMENDATION" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Table_4" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Table_3" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="SECTION_10_FINAL_RECOMMENDATION" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Table_4" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -470,7 +471,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-19 01:12:46</t>
+          <t>2026-01-19 08:31:31</t>
         </is>
       </c>
     </row>
@@ -481,7 +482,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -504,8 +505,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="24" customWidth="1" min="2" max="2"/>
+    <col width="24" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
@@ -539,12 +540,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ABAP_to_PySpark_Analyzer.txt</t>
+          <t>ABAP_Documentation.txt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>abap_to_pyspark_analyzer.txt</t>
+          <t>abap_documentation.txt</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -566,12 +567,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-1 / -2.2%</t>
+          <t>+1 (+2.2%)</t>
         </is>
       </c>
     </row>
@@ -605,17 +606,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>+1</t>
         </is>
       </c>
     </row>
@@ -654,7 +655,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -676,7 +677,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -773,7 +774,7 @@
     <col width="23" customWidth="1" min="1" max="1"/>
     <col width="26" customWidth="1" min="2" max="2"/>
     <col width="26" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -828,17 +829,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+1 / +2.3%</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -872,12 +873,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -921,7 +922,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1029,7 +1030,164 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="33" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Risk Factor</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Risk Level</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Mitigation</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Equivalence</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>All logic and structure matched</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>None required</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Documentation</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Minor expansion only</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>None required</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>All components verified</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>None required</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>No changes affecting efficiency</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>None required</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Invalid/Unmatched Files</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1038,30 +1196,24 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="28" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="34" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="33" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Risk Factor</t>
+          <t>Readiness Aspect</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Risk Level</t>
+          <t>Status</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Mitigation</t>
+          <t>Details</t>
         </is>
       </c>
     </row>
@@ -1073,17 +1225,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>READY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>All logic and outcomes preserved</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>None required</t>
+          <t>All logic and outcomes matched</t>
         </is>
       </c>
     </row>
@@ -1095,17 +1242,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>READY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No gaps detected</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>None required</t>
+          <t>All components validated</t>
         </is>
       </c>
     </row>
@@ -1117,17 +1259,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>READY</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No changes affecting performance</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>None required</t>
+          <t>No changes affecting efficiency</t>
         </is>
       </c>
     </row>
@@ -1139,17 +1276,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>READY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Minor formatting changes only</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>None required</t>
+          <t>Expanded, fully covered</t>
         </is>
       </c>
     </row>
@@ -1161,17 +1293,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>READY</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>All prerequisites satisfied</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>None required</t>
+          <t>All files present and matched</t>
         </is>
       </c>
     </row>
@@ -1188,12 +1315,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>No remediation needed</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Proceed immediately</t>
+          <t>Immediate migration supported</t>
         </is>
       </c>
     </row>
@@ -1202,7 +1324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1217,7 +1339,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="50" customWidth="1" min="2" max="2"/>
+    <col width="36" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1252,7 +1374,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>All components matched with full equivalence and zero migration risk.</t>
+          <t>All gates passed, full equivalence</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1300,7 +1422,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="17" customWidth="1" min="2" max="2"/>
+    <col width="24" customWidth="1" min="2" max="2"/>
     <col width="28" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
   </cols>
@@ -1335,7 +1457,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Proceed</t>
+          <t>Proceed with migration</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1368,12 +1490,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="22" customWidth="1" min="1" max="1"/>
+    <col width="26" customWidth="1" min="1" max="1"/>
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="30" customWidth="1" min="3" max="3"/>
     <col width="16" customWidth="1" min="4" max="4"/>
     <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="24" customWidth="1" min="6" max="6"/>
+    <col width="19" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
     <col width="18" customWidth="1" min="8" max="8"/>
   </cols>
@@ -1423,17 +1545,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Documentation</t>
+          <t>ABAP_to_PySpark_Analyzer</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ABAP_Documentation.txt</t>
+          <t>ABAP_to_PySpark_Analyzer.txt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>abap_documentation.txt</t>
+          <t>abap_to_pyspark_analyzer.txt</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1443,7 +1565,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>97.7%</t>
+          <t>97.8%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1453,7 +1575,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>98/100</t>
+          <t>97/100</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -1465,17 +1587,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Analyzer</t>
+          <t>ABAP_Documentation</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ABAP_to_PySpark_Analyzer.txt</t>
+          <t>ABAP_Documentation.txt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>abap_to_pyspark_analyzer.txt</t>
+          <t>abap_documentation.txt</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1507,7 +1629,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Plan</t>
+          <t>ABAP_to_PySpark_Plan</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1564,7 +1686,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Avg ±0.7</t>
+          <t>Avg ±0.7 lines</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1574,12 +1696,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>All matched equivalent</t>
+          <t>Full Equivalence</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>98.3/100</t>
+          <t>98/100</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1778,7 +1900,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1795,7 +1917,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1962,7 +2084,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="35" customWidth="1" min="1" max="1"/>
-    <col width="29" customWidth="1" min="2" max="2"/>
+    <col width="23" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
   </cols>
@@ -1997,7 +2119,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Business rules and outcomes</t>
+          <t>Rules and outcomes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2139,7 +2261,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>9-10</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -2161,7 +2283,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2305,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>9-10</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2227,7 +2349,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>98.3/100</t>
+          <t>97/100</t>
         </is>
       </c>
     </row>
@@ -2253,7 +2375,7 @@
     <col width="38" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
@@ -2292,17 +2414,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>136</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>138</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>±1 / -0.7%</t>
+          <t>+2 (+1.5%)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -2346,17 +2468,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>+0.3 / +10%</t>
+          <t>+0.4 (+9.3%)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -2442,7 +2564,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2591,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2519,7 +2641,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="17" customWidth="1" min="1" max="1"/>
+    <col width="26" customWidth="1" min="1" max="1"/>
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="30" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
@@ -2574,17 +2696,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Documentation</t>
+          <t>ABAP_to_PySpark_Analyzer</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ABAP_Documentation.txt</t>
+          <t>ABAP_to_PySpark_Analyzer.txt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>abap_documentation.txt</t>
+          <t>abap_to_pyspark_analyzer.txt</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -2599,12 +2721,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>97.7%</t>
+          <t>97.8%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>98/100</t>
+          <t>97/100</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -2616,17 +2738,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Analyzer</t>
+          <t>ABAP_Documentation</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ABAP_to_PySpark_Analyzer.txt</t>
+          <t>ABAP_Documentation.txt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>abap_to_pyspark_analyzer.txt</t>
+          <t>abap_documentation.txt</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2658,7 +2780,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Plan</t>
+          <t>ABAP_to_PySpark_Plan</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2717,8 +2839,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="24" customWidth="1" min="2" max="2"/>
-    <col width="24" customWidth="1" min="3" max="3"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
@@ -2752,12 +2874,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ABAP_Documentation.txt</t>
+          <t>ABAP_to_PySpark_Analyzer.txt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>abap_documentation.txt</t>
+          <t>abap_to_pyspark_analyzer.txt</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -2779,12 +2901,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-1 / -2.2%</t>
+          <t>+1 (+2.2%)</t>
         </is>
       </c>
     </row>
@@ -2867,7 +2989,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -2889,7 +3011,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2938,7 +3060,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>97.7%</t>
+          <t>97.8%</t>
         </is>
       </c>
     </row>
@@ -2960,7 +3082,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>98/100</t>
+          <t>97/100</t>
         </is>
       </c>
     </row>
